--- a/barcode/your_excel_file.xlsx
+++ b/barcode/your_excel_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">штрихкод</t>
   </si>
   <si>
-    <t xml:space="preserve">количество</t>
+    <t xml:space="preserve">Num_Copies</t>
   </si>
   <si>
     <t xml:space="preserve">Local_PDF_Path_Column_Name</t>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки Александр.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки Михаил.pdf</t>
   </si>
 </sst>
 </file>
@@ -155,13 +161,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -256,14 +266,14 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.63"/>
   </cols>
@@ -275,7 +285,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -286,21 +296,27 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -309,7 +325,7 @@
       <c r="A7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/barcode/your_excel_file.xlsx
+++ b/barcode/your_excel_file.xlsx
@@ -266,13 +266,13 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.63"/>
@@ -300,7 +300,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>

--- a/barcode/your_excel_file.xlsx
+++ b/barcode/your_excel_file.xlsx
@@ -266,7 +266,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -300,7 +300,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -312,7 +312,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>

--- a/barcode/your_excel_file.xlsx
+++ b/barcode/your_excel_file.xlsx
@@ -266,7 +266,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -300,7 +300,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>

--- a/barcode/your_excel_file.xlsx
+++ b/barcode/your_excel_file.xlsx
@@ -266,7 +266,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,7 +312,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>

--- a/barcode/your_excel_file.xlsx
+++ b/barcode/your_excel_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -37,16 +37,10 @@
     <t xml:space="preserve">Термобирки Александр</t>
   </si>
   <si>
-    <t xml:space="preserve">OZN1296040082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки Александр.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термобирки Михаил</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки Михаил.pdf</t>
+    <t xml:space="preserve">Термобирки Максим</t>
   </si>
 </sst>
 </file>
@@ -56,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -93,14 +87,6 @@
       <sz val="11"/>
       <color rgb="FF172133"/>
       <name val="Inter"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -161,7 +147,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,10 +165,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -266,7 +248,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -274,7 +256,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="72.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.63"/>
   </cols>
   <sheetData>
@@ -296,36 +278,47 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\", A2, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки Александр.pdf</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D3" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\", A3, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки Михаил.pdf</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\", A4, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки Максим.pdf</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/barcode/your_excel_file.xlsx
+++ b/barcode/your_excel_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">Num_Copies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local_PDF_Path_Column_Name</t>
   </si>
   <si>
     <t xml:space="preserve">Термобирки Александр</t>
@@ -174,7 +171,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -196,46 +193,33 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A2, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Александр.pdf</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A3, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Михаил.pdf</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A4, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Максим.pdf</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A5, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Аврора.pdf</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/barcode/your_excel_file.xlsx
+++ b/barcode/your_excel_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -31,16 +31,229 @@
     <t xml:space="preserve">Num_Copies</t>
   </si>
   <si>
+    <t xml:space="preserve">Термобирки Артем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки София</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Ева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Анна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Матвей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Алиса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Арина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Максим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Роман</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Мария</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Варвара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Полина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Лев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Кирилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Екатерина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Виктория</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Анастасия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Даниил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Тимофей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Ярослав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Милана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Марк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Демид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Ксения</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки Александр</t>
   </si>
   <si>
-    <t xml:space="preserve">Термобирки Михаил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Максим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Аврора</t>
+    <t xml:space="preserve">Термобирки Илья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Адам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Елизавета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Вероника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Иван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Константин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Василиса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Кира</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Мухаммад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Егор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Дарья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Мирослава</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Татьяна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Савелий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Богдан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Данил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Семён</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Владимир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Алексей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Мирон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Надежда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Александра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Игорь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Мирослав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Фёдор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Денис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Есения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Ольга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Эмилия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Светлана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Аделина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Леон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Макар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Антон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Вячеслав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Олег</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Сергей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Степан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Агата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Елена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Мира</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Ирина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Амалия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Оливия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Станислав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Юрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Василий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Вадим</t>
   </si>
 </sst>
 </file>
@@ -50,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -80,14 +293,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -134,7 +339,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,10 +350,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -168,10 +369,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="D60" activeCellId="1" sqref="C2:C11 D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -196,51 +397,645 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C2" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
+      <c r="C4" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C5" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2"/>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2"/>
+      <c r="C86" s="2"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/barcode/your_excel_file.xlsx
+++ b/barcode/your_excel_file.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D60" activeCellId="1" sqref="C2:C11 D60"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/barcode/your_excel_file.xlsx
+++ b/barcode/your_excel_file.xlsx
@@ -371,8 +371,8 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -400,313 +400,235 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>6</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>6</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>6</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
@@ -728,273 +650,205 @@
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>

--- a/barcode/your_excel_file.xlsx
+++ b/barcode/your_excel_file.xlsx
@@ -371,8 +371,8 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -400,235 +400,313 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
@@ -650,205 +728,273 @@
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
